--- a/data/trans_orig/BARTHEL_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R3-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17823</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10409</v>
+        <v>11193</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25205</v>
+        <v>25862</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.154993215770238</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09052273040022321</v>
+        <v>0.09733652326740569</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2191943433679718</v>
+        <v>0.2249084880969324</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -765,19 +765,19 @@
         <v>25609</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17292</v>
+        <v>17015</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36071</v>
+        <v>36060</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1712590754148518</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1156415336820146</v>
+        <v>0.1137872493266451</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2412200475647481</v>
+        <v>0.2411463280835973</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -786,19 +786,19 @@
         <v>43432</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32855</v>
+        <v>33378</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56752</v>
+        <v>58284</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1641882944538218</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1242035981983354</v>
+        <v>0.1261805770193149</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.214545082070164</v>
+        <v>0.2203367181890592</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>97166</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>89784</v>
+        <v>89127</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>104580</v>
+        <v>103796</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8450067842297619</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7808056566320278</v>
+        <v>0.7750915119030675</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9094772695997767</v>
+        <v>0.9026634767325938</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>127</v>
@@ -836,19 +836,19 @@
         <v>123926</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>113464</v>
+        <v>113475</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>132243</v>
+        <v>132520</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8287409245851483</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7587799524352519</v>
+        <v>0.7588536719164025</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8843584663179853</v>
+        <v>0.8862127506733547</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>227</v>
@@ -857,19 +857,19 @@
         <v>221092</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>207772</v>
+        <v>206240</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>231669</v>
+        <v>231146</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8358117055461781</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.785454917929836</v>
+        <v>0.7796632818109408</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8757964018016646</v>
+        <v>0.873819422980685</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>22369</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14816</v>
+        <v>15166</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31908</v>
+        <v>32518</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1533276725032902</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.101556921386046</v>
+        <v>0.1039540357214343</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2187113231278744</v>
+        <v>0.2228967529616072</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -982,19 +982,19 @@
         <v>41951</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31730</v>
+        <v>29613</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56661</v>
+        <v>54870</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2296411561463274</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1736907160181884</v>
+        <v>0.1621030921139711</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3101649061525174</v>
+        <v>0.3003602708942384</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -1003,19 +1003,19 @@
         <v>64319</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49726</v>
+        <v>51789</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79736</v>
+        <v>80030</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1957569364336692</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1513420694304276</v>
+        <v>0.157619993445328</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2426771499924154</v>
+        <v>0.2435735635556133</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>123520</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>113981</v>
+        <v>113371</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>131073</v>
+        <v>130723</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8466723274967098</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7812886768721257</v>
+        <v>0.7771032470383928</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.898443078613954</v>
+        <v>0.8960459642785658</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>133</v>
@@ -1053,19 +1053,19 @@
         <v>140729</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>126019</v>
+        <v>127810</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>150950</v>
+        <v>153067</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7703588438536726</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6898350938474828</v>
+        <v>0.6996397291057616</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8263092839818116</v>
+        <v>0.8378969078860289</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>256</v>
@@ -1074,19 +1074,19 @@
         <v>264249</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>248832</v>
+        <v>248538</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>278842</v>
+        <v>276779</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8042430635663308</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7573228500075847</v>
+        <v>0.7564264364443867</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8486579305695724</v>
+        <v>0.8423800065546725</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11283</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6812</v>
+        <v>5672</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19021</v>
+        <v>18356</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1081044258718039</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0652636207783218</v>
+        <v>0.05434197809376228</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1822416253174879</v>
+        <v>0.1758757439965514</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1199,19 +1199,19 @@
         <v>25593</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17117</v>
+        <v>17542</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34838</v>
+        <v>36487</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1883916708075706</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1259984407808232</v>
+        <v>0.1291278232574358</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.256445904166285</v>
+        <v>0.2685795927380272</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1220,19 +1220,19 @@
         <v>36876</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26377</v>
+        <v>26811</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49982</v>
+        <v>49627</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1535085084003505</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1098010053162793</v>
+        <v>0.1116082209910504</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2080683877150565</v>
+        <v>0.2065868673378342</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>93088</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>85350</v>
+        <v>86015</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>97559</v>
+        <v>98699</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8918955741281961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8177583746825112</v>
+        <v>0.824124256003448</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9347363792216782</v>
+        <v>0.9456580219062375</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>115</v>
@@ -1270,19 +1270,19 @@
         <v>110257</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>101012</v>
+        <v>99363</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>118733</v>
+        <v>118308</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8116083291924294</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7435540958337147</v>
+        <v>0.7314204072619729</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8740015592191768</v>
+        <v>0.8708721767425642</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>205</v>
@@ -1291,19 +1291,19 @@
         <v>203345</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>190239</v>
+        <v>190594</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>213844</v>
+        <v>213410</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8464914915996495</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7919316122849435</v>
+        <v>0.7934131326621652</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8901989946837207</v>
+        <v>0.8883917790089496</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>15540</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9828</v>
+        <v>9178</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23838</v>
+        <v>23399</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1132503151154952</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0716251766707002</v>
+        <v>0.06689038666321691</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1737262557178268</v>
+        <v>0.1705229593455675</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -1416,19 +1416,19 @@
         <v>44750</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33399</v>
+        <v>33432</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58696</v>
+        <v>57497</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2143444663879391</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1599731611275021</v>
+        <v>0.1601347793711449</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2811407590352599</v>
+        <v>0.2754005672864018</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -1437,19 +1437,19 @@
         <v>60290</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48387</v>
+        <v>46342</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76993</v>
+        <v>75136</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1742517362239879</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1398476718616596</v>
+        <v>0.1339389485650961</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2225251890953425</v>
+        <v>0.2171579471889534</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>121677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>113379</v>
+        <v>113818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>127389</v>
+        <v>128039</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8867496848845048</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8262737442821733</v>
+        <v>0.8294770406544322</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9283748233292999</v>
+        <v>0.933109613336783</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>159</v>
@@ -1487,19 +1487,19 @@
         <v>164027</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>150081</v>
+        <v>151280</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>175378</v>
+        <v>175345</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7856555336120609</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7188592409647403</v>
+        <v>0.7245994327135983</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.840026838872498</v>
+        <v>0.8398652206288552</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>297</v>
@@ -1508,19 +1508,19 @@
         <v>285705</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>269002</v>
+        <v>270859</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>297608</v>
+        <v>299653</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8257482637760122</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7774748109046566</v>
+        <v>0.7828420528110465</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8601523281383404</v>
+        <v>0.8660610514349039</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>67014</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52118</v>
+        <v>54795</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>81411</v>
+        <v>83796</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1333705332244771</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1037247057035059</v>
+        <v>0.1090521764672224</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1620223175132444</v>
+        <v>0.166770214699991</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>127</v>
@@ -1633,19 +1633,19 @@
         <v>137903</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>117735</v>
+        <v>118432</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>161976</v>
+        <v>162406</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.203745126112127</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1739478288141547</v>
+        <v>0.1749780444567464</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2393108578827693</v>
+        <v>0.2399460325688745</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>199</v>
@@ -1654,19 +1654,19 @@
         <v>204917</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>180645</v>
+        <v>178469</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>232434</v>
+        <v>230777</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.173760728081598</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1531785390248151</v>
+        <v>0.1513335345831459</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1970931828606378</v>
+        <v>0.1956882480524964</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>435452</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>421055</v>
+        <v>418670</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>450348</v>
+        <v>447671</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.866629466775523</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8379776824867556</v>
+        <v>0.833229785300009</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8962752942964941</v>
+        <v>0.8909478235327777</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>534</v>
@@ -1704,19 +1704,19 @@
         <v>538939</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>514866</v>
+        <v>514436</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>559107</v>
+        <v>558410</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.796254873887873</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7606891421172306</v>
+        <v>0.7600539674311256</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8260521711858452</v>
+        <v>0.8250219555432539</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>985</v>
@@ -1725,19 +1725,19 @@
         <v>974391</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>946874</v>
+        <v>948531</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>998663</v>
+        <v>1000839</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.826239271918402</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8029068171393622</v>
+        <v>0.8043117519475036</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8468214609751848</v>
+        <v>0.8486664654168541</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>18327</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11219</v>
+        <v>11366</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28073</v>
+        <v>27251</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1313297831251178</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0803962204480406</v>
+        <v>0.08144600120054314</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2011701859179385</v>
+        <v>0.1952791317538934</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -2090,19 +2090,19 @@
         <v>52382</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40958</v>
+        <v>40348</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64996</v>
+        <v>63940</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3140649600021196</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.245570950518152</v>
+        <v>0.2419104699638341</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.389693779678624</v>
+        <v>0.3833626390466927</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -2111,19 +2111,19 @@
         <v>70709</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56173</v>
+        <v>57062</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85647</v>
+        <v>88409</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2308217976812516</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1833718066188917</v>
+        <v>0.1862729556328486</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2795860143641777</v>
+        <v>0.2886046841489346</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>121220</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>111474</v>
+        <v>112296</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>128328</v>
+        <v>128181</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8686702168748822</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7988298140820614</v>
+        <v>0.8047208682461066</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9196037795519594</v>
+        <v>0.9185539987994569</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>109</v>
@@ -2161,19 +2161,19 @@
         <v>114405</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>101791</v>
+        <v>102847</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>125829</v>
+        <v>126439</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6859350399978804</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.610306220321376</v>
+        <v>0.6166373609533075</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.754429049481848</v>
+        <v>0.758089530036166</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>220</v>
@@ -2182,19 +2182,19 @@
         <v>235625</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>220687</v>
+        <v>217925</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>250161</v>
+        <v>249272</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7691782023187484</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7204139856358222</v>
+        <v>0.711395315851066</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8166281933811083</v>
+        <v>0.8137270443671514</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>38957</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29170</v>
+        <v>27945</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50578</v>
+        <v>51914</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2515352697924159</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1883439837292309</v>
+        <v>0.1804324216827558</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3265651871107265</v>
+        <v>0.3351928389174885</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -2307,19 +2307,19 @@
         <v>70846</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57311</v>
+        <v>58349</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84849</v>
+        <v>85016</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3701096082893611</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2993983825326753</v>
+        <v>0.3048221677862586</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4432631251750724</v>
+        <v>0.4441333210512164</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>98</v>
@@ -2328,19 +2328,19 @@
         <v>109804</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92773</v>
+        <v>92994</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127628</v>
+        <v>128186</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3170785137706107</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2678992090756852</v>
+        <v>0.2685374506707519</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3685489487456198</v>
+        <v>0.3701604021375046</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>115921</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104300</v>
+        <v>102964</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>125708</v>
+        <v>126933</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7484647302075841</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6734348128892735</v>
+        <v>0.6648071610825121</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8116560162707692</v>
+        <v>0.8195675783172446</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>113</v>
@@ -2378,19 +2378,19 @@
         <v>120574</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>106571</v>
+        <v>106404</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>134109</v>
+        <v>133071</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6298903917106389</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5567368748249275</v>
+        <v>0.5558666789487836</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7006016174673243</v>
+        <v>0.6951778322137414</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>217</v>
@@ -2399,19 +2399,19 @@
         <v>236494</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>218670</v>
+        <v>218112</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>253525</v>
+        <v>253304</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6829214862293893</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6314510512543803</v>
+        <v>0.6298395978624953</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7321007909243148</v>
+        <v>0.731462549329248</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>20438</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12190</v>
+        <v>12201</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31910</v>
+        <v>31413</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1972832785236552</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1176654526055986</v>
+        <v>0.117774147345338</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3080172633108514</v>
+        <v>0.3032183155900636</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -2524,19 +2524,19 @@
         <v>43196</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32597</v>
+        <v>32383</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55961</v>
+        <v>55057</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3063141063382209</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2311497994467402</v>
+        <v>0.2296322587591571</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3968301901288327</v>
+        <v>0.3904247887430498</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -2545,19 +2545,19 @@
         <v>63634</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50534</v>
+        <v>50459</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79307</v>
+        <v>78321</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.26013822984989</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2065832783667051</v>
+        <v>0.2062764318204057</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3242084527485531</v>
+        <v>0.3201770289107883</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>83160</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>71688</v>
+        <v>72185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>91408</v>
+        <v>91397</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8027167214763448</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6919827366891484</v>
+        <v>0.6967816844099363</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8823345473944013</v>
+        <v>0.8822258526546622</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>90</v>
@@ -2595,19 +2595,19 @@
         <v>97823</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>85058</v>
+        <v>85962</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>108422</v>
+        <v>108636</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6936858936617791</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6031698098711674</v>
+        <v>0.6095752112569501</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7688502005532598</v>
+        <v>0.7703677412408426</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>164</v>
@@ -2616,19 +2616,19 @@
         <v>180983</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>165310</v>
+        <v>166296</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>194083</v>
+        <v>194158</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.73986177015011</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6757915472514469</v>
+        <v>0.6798229710892116</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7934167216332949</v>
+        <v>0.7937235681795941</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>27665</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18661</v>
+        <v>18635</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39430</v>
+        <v>40394</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1711794395390571</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1154698137464495</v>
+        <v>0.1153080262821028</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2439756441890144</v>
+        <v>0.2499430823222706</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -2741,19 +2741,19 @@
         <v>67966</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>53804</v>
+        <v>55188</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83809</v>
+        <v>83170</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2788336421442163</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2207343570769514</v>
+        <v>0.2264102750409598</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3438321937605295</v>
+        <v>0.3412098565642274</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -2762,19 +2762,19 @@
         <v>95630</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>78614</v>
+        <v>80214</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115723</v>
+        <v>114130</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.235913206798205</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.193934329029774</v>
+        <v>0.1978822357404451</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.28548090985545</v>
+        <v>0.281549989483796</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>133948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>122183</v>
+        <v>121219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>142952</v>
+        <v>142978</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.828820560460943</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7560243558109857</v>
+        <v>0.7500569176777294</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8845301862535505</v>
+        <v>0.8846919737178972</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>166</v>
@@ -2812,19 +2812,19 @@
         <v>175784</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>159941</v>
+        <v>160580</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>189946</v>
+        <v>188562</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7211663578557838</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6561678062394705</v>
+        <v>0.6587901434357731</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7792656429230486</v>
+        <v>0.7735897249590402</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>289</v>
@@ -2833,19 +2833,19 @@
         <v>309733</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>289640</v>
+        <v>291233</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>326749</v>
+        <v>325149</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.764086793201795</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.71451909014455</v>
+        <v>0.7184500105162039</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8060656709702257</v>
+        <v>0.8021177642595547</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>105387</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86868</v>
+        <v>86271</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126408</v>
+        <v>126219</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1883133287584055</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1552220075980543</v>
+        <v>0.1541556883794856</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2258754894346823</v>
+        <v>0.2255376232233162</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>216</v>
@@ -2958,19 +2958,19 @@
         <v>234390</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>208707</v>
+        <v>207341</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>261305</v>
+        <v>259365</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3154747453440803</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2809067922075277</v>
+        <v>0.2790691775635055</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3517002634050367</v>
+        <v>0.3490904160434973</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>308</v>
@@ -2979,19 +2979,19 @@
         <v>339777</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>309584</v>
+        <v>311382</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>376026</v>
+        <v>373171</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2608427932215529</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2376637631065261</v>
+        <v>0.2390441520098748</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2886708421729258</v>
+        <v>0.2864789331249478</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>454250</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>433229</v>
+        <v>433418</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>472769</v>
+        <v>473366</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8116866712415944</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7741245105653179</v>
+        <v>0.7744623767766836</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8447779924019457</v>
+        <v>0.8458443116205143</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>478</v>
@@ -3029,19 +3029,19 @@
         <v>508585</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>481670</v>
+        <v>483610</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>534268</v>
+        <v>535634</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6845252546559197</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6482997365949633</v>
+        <v>0.6509095839565027</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7190932077924722</v>
+        <v>0.7209308224364944</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>890</v>
@@ -3050,19 +3050,19 @@
         <v>962835</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>926586</v>
+        <v>929441</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>993028</v>
+        <v>991230</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7391572067784471</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7113291578270742</v>
+        <v>0.7135210668750521</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7623362368934739</v>
+        <v>0.7609558479901252</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>24254</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16384</v>
+        <v>16606</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32758</v>
+        <v>33485</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1773779799089942</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1198263319474966</v>
+        <v>0.1214470331352454</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2395776984195898</v>
+        <v>0.2448915099827585</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -3415,19 +3415,19 @@
         <v>56035</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44346</v>
+        <v>43855</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69309</v>
+        <v>69512</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3231702580552239</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2557597753117757</v>
+        <v>0.2529259449658531</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3997294075345967</v>
+        <v>0.4009001587792891</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -3436,19 +3436,19 @@
         <v>80288</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65912</v>
+        <v>65174</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97178</v>
+        <v>97385</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2588904657205379</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2125323958284278</v>
+        <v>0.2101541526922303</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.313352129035561</v>
+        <v>0.3140170246964317</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>112480</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103976</v>
+        <v>103249</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>120350</v>
+        <v>120128</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8226220200910058</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7604223015804091</v>
+        <v>0.7551084900172419</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8801736680525034</v>
+        <v>0.8785529668647547</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>108</v>
@@ -3486,19 +3486,19 @@
         <v>117356</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104082</v>
+        <v>103879</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129045</v>
+        <v>129536</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6768297419447761</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6002705924654035</v>
+        <v>0.5990998412207109</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7442402246882243</v>
+        <v>0.7470740550341473</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>228</v>
@@ -3507,19 +3507,19 @@
         <v>229837</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>212947</v>
+        <v>212740</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>244213</v>
+        <v>244951</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7411095342794621</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6866478709644391</v>
+        <v>0.6859829753035684</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7874676041715724</v>
+        <v>0.7898458473077696</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>30522</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21918</v>
+        <v>22084</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40995</v>
+        <v>40177</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1850455363253067</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1328832411213474</v>
+        <v>0.1338886058456068</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2485410696132108</v>
+        <v>0.2435832555473047</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -3632,19 +3632,19 @@
         <v>64521</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51555</v>
+        <v>51104</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80540</v>
+        <v>80286</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2943966092526526</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.235237794988451</v>
+        <v>0.233180275156279</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.367490825710487</v>
+        <v>0.3663297342419837</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -3653,19 +3653,19 @@
         <v>95042</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>78107</v>
+        <v>78144</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114888</v>
+        <v>113141</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2474393840990412</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2033487687363228</v>
+        <v>0.2034443638828895</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2991059140227781</v>
+        <v>0.2945579430303767</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>134419</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>123946</v>
+        <v>124764</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>143023</v>
+        <v>142857</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8149544636746933</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7514589303867891</v>
+        <v>0.7564167444526952</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8671167588786522</v>
+        <v>0.866111394154393</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>131</v>
@@ -3703,19 +3703,19 @@
         <v>154642</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>138623</v>
+        <v>138877</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>167608</v>
+        <v>168059</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7056033907473475</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.632509174289513</v>
+        <v>0.6336702657580164</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7647622050115491</v>
+        <v>0.7668197248437211</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>272</v>
@@ -3724,19 +3724,19 @@
         <v>289062</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>269216</v>
+        <v>270963</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>305997</v>
+        <v>305960</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7525606159009588</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.700894085977222</v>
+        <v>0.7054420569696246</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7966512312636772</v>
+        <v>0.7965556361171113</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>20145</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12335</v>
+        <v>13124</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29159</v>
+        <v>30079</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1751188166775701</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1072283432748205</v>
+        <v>0.1140869297642119</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2534780658646654</v>
+        <v>0.2614747169844286</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -3849,19 +3849,19 @@
         <v>46204</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34074</v>
+        <v>34419</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58503</v>
+        <v>58684</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3240228101700969</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2389536851880354</v>
+        <v>0.2413710683314491</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4102741872400842</v>
+        <v>0.4115413210833205</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -3870,19 +3870,19 @@
         <v>66349</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52839</v>
+        <v>52739</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83614</v>
+        <v>82589</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2575355703406071</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.205097205419422</v>
+        <v>0.2047083724852295</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3245513369427208</v>
+        <v>0.320571196777382</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>94890</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>85876</v>
+        <v>84956</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102700</v>
+        <v>101911</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8248811833224299</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7465219341353352</v>
+        <v>0.7385252830155713</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8927716567251796</v>
+        <v>0.8859130702357881</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>81</v>
@@ -3920,19 +3920,19 @@
         <v>96392</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>84093</v>
+        <v>83912</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>108522</v>
+        <v>108177</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6759771898299031</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.589725812759916</v>
+        <v>0.5884586789166806</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7610463148119652</v>
+        <v>0.7586289316685516</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>175</v>
@@ -3941,19 +3941,19 @@
         <v>191282</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>174017</v>
+        <v>175042</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>204792</v>
+        <v>204892</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7424644296593929</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6754486630572787</v>
+        <v>0.6794288032226177</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.794902794580578</v>
+        <v>0.7952916275147703</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>25709</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17585</v>
+        <v>17220</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36017</v>
+        <v>35897</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1472286575330328</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1007083607179284</v>
+        <v>0.098616915765042</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2062595067914223</v>
+        <v>0.2055746340135081</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -4066,19 +4066,19 @@
         <v>73449</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57720</v>
+        <v>58178</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>90549</v>
+        <v>89775</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3025327758759939</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2377468018263753</v>
+        <v>0.2396323139450401</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3729666978200605</v>
+        <v>0.3697773981143913</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -4087,19 +4087,19 @@
         <v>99158</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81566</v>
+        <v>81978</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>119194</v>
+        <v>118818</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2375615914103895</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1954148091729682</v>
+        <v>0.1964011875607211</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2855630050323558</v>
+        <v>0.2846614913846693</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>148909</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>138601</v>
+        <v>138721</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>157033</v>
+        <v>157398</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8527713424669672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7937404932085778</v>
+        <v>0.7944253659864923</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8992916392820717</v>
+        <v>0.9013830842349581</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>142</v>
@@ -4137,19 +4137,19 @@
         <v>169332</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>152232</v>
+        <v>153006</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>185061</v>
+        <v>184603</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6974672241240061</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6270333021799388</v>
+        <v>0.6302226018856086</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7622531981736247</v>
+        <v>0.7603676860549597</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>304</v>
@@ -4158,19 +4158,19 @@
         <v>318242</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>298206</v>
+        <v>298582</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>335834</v>
+        <v>335422</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7624384085896105</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7144369949676446</v>
+        <v>0.7153385086153309</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8045851908270319</v>
+        <v>0.803598812439279</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>100629</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81899</v>
+        <v>84468</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>117316</v>
+        <v>118358</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1701741720197465</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1385003002099361</v>
+        <v>0.1428452591894323</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1983937882390514</v>
+        <v>0.2001554405694869</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>193</v>
@@ -4283,19 +4283,19 @@
         <v>240209</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>214293</v>
+        <v>214616</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>266598</v>
+        <v>269360</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.308779593374607</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2754652111684676</v>
+        <v>0.2758804875720276</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3427012662500459</v>
+        <v>0.3462514894462421</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>303</v>
@@ -4304,19 +4304,19 @@
         <v>340838</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>307894</v>
+        <v>309006</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>373452</v>
+        <v>373905</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.248921475608498</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2248616582944365</v>
+        <v>0.2256736218239512</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2727404514158015</v>
+        <v>0.2730707726531796</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>490699</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>474012</v>
+        <v>472970</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>509429</v>
+        <v>506860</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8298258279802535</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8016062117609483</v>
+        <v>0.7998445594305126</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8614996997900637</v>
+        <v>0.8571547408105674</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>462</v>
@@ -4354,19 +4354,19 @@
         <v>537722</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>511333</v>
+        <v>508571</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>563638</v>
+        <v>563315</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.691220406625393</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6572987337499544</v>
+        <v>0.6537485105537576</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7245347888315323</v>
+        <v>0.7241195124279722</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>979</v>
@@ -4375,19 +4375,19 @@
         <v>1028421</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>995807</v>
+        <v>995354</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1061365</v>
+        <v>1060253</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.751078524391502</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7272595485841984</v>
+        <v>0.7269292273468205</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7751383417055634</v>
+        <v>0.7743263781760488</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>34939</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27737</v>
+        <v>26971</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44966</v>
+        <v>44042</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2159312224832512</v>
+        <v>0.2159312224832511</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1714176936239874</v>
+        <v>0.1666846798373324</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2778959883378145</v>
+        <v>0.2721840444697156</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>177</v>
@@ -4740,19 +4740,19 @@
         <v>75966</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66852</v>
+        <v>66764</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>85115</v>
+        <v>84401</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4007871411457843</v>
+        <v>0.4007871411457842</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3527022451877354</v>
+        <v>0.3522386589843087</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4490589730443388</v>
+        <v>0.4452907213161375</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>239</v>
@@ -4761,19 +4761,19 @@
         <v>110905</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100025</v>
+        <v>96456</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124417</v>
+        <v>121846</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3156547467618335</v>
+        <v>0.3156547467618334</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2846877859551862</v>
+        <v>0.2745298141639775</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3541119057416669</v>
+        <v>0.3467939101690456</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>126869</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>116842</v>
+        <v>117766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134071</v>
+        <v>134837</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7840687775167489</v>
+        <v>0.7840687775167486</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7221040116621853</v>
+        <v>0.7278159555302843</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8285823063760126</v>
+        <v>0.8333153201626675</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -4811,19 +4811,19 @@
         <v>113575</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104426</v>
+        <v>105140</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>122689</v>
+        <v>122777</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5992128588542159</v>
+        <v>0.5992128588542157</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5509410269556614</v>
+        <v>0.5547092786838627</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6472977548122647</v>
+        <v>0.6477613410156914</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>455</v>
@@ -4832,19 +4832,19 @@
         <v>240445</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>226933</v>
+        <v>229504</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>251325</v>
+        <v>254894</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6843452532381664</v>
+        <v>0.6843452532381665</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6458880942583333</v>
+        <v>0.6532060898309542</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7153122140448138</v>
+        <v>0.7254701858360225</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>34700</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26381</v>
+        <v>26641</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44154</v>
+        <v>44060</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1947201488022448</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1480396612734717</v>
+        <v>0.1494979439188301</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2477750130658225</v>
+        <v>0.2472432598359183</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>160</v>
@@ -4957,19 +4957,19 @@
         <v>84866</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74744</v>
+        <v>73946</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95376</v>
+        <v>95473</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3531004499147785</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3109842136328485</v>
+        <v>0.3076652328444585</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3968260663847853</v>
+        <v>0.3972313380538137</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>215</v>
@@ -4978,19 +4978,19 @@
         <v>119566</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>105577</v>
+        <v>106320</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134222</v>
+        <v>133462</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2856676779054432</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2522453713263126</v>
+        <v>0.2540199175466821</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3206844324327916</v>
+        <v>0.318867944700709</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>143504</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>134050</v>
+        <v>134144</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>151823</v>
+        <v>151563</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8052798511977551</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7522249869341771</v>
+        <v>0.7527567401640809</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8519603387265282</v>
+        <v>0.8505020560811699</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>286</v>
@@ -5028,19 +5028,19 @@
         <v>155480</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>144970</v>
+        <v>144873</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>165602</v>
+        <v>166400</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6468995500852215</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6031739336152147</v>
+        <v>0.6027686619461863</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6890157863671514</v>
+        <v>0.6923347671555414</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>485</v>
@@ -5049,19 +5049,19 @@
         <v>298984</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>284328</v>
+        <v>285088</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>312973</v>
+        <v>312230</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7143323220945569</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.679315567567209</v>
+        <v>0.6811320552992909</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7477546286736875</v>
+        <v>0.7459800824533178</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>38093</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29069</v>
+        <v>29659</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48739</v>
+        <v>48461</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.238399258392103</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1819287105205403</v>
+        <v>0.1856178507103909</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3050303000873493</v>
+        <v>0.3032888946425428</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -5174,19 +5174,19 @@
         <v>62731</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52721</v>
+        <v>53239</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71972</v>
+        <v>73817</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3598994975587578</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3024714825905462</v>
+        <v>0.3054436828251968</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4129189604132567</v>
+        <v>0.4235030256659671</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>144</v>
@@ -5195,19 +5195,19 @@
         <v>100823</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87838</v>
+        <v>88213</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116815</v>
+        <v>115739</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.301788980406971</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2629216657568836</v>
+        <v>0.2640448869985882</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3496575134965087</v>
+        <v>0.3464344296423803</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>121692</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>111046</v>
+        <v>111324</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>130716</v>
+        <v>130126</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7616007416078969</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6949696999126509</v>
+        <v>0.6967111053574572</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8180712894794598</v>
+        <v>0.8143821492896092</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>189</v>
@@ -5245,19 +5245,19 @@
         <v>111570</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>102329</v>
+        <v>100484</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>121580</v>
+        <v>121062</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6401005024412423</v>
+        <v>0.6401005024412422</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5870810395867434</v>
+        <v>0.5764969743340329</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.697528517409454</v>
+        <v>0.6945563171748026</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>336</v>
@@ -5266,19 +5266,19 @@
         <v>233262</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>217270</v>
+        <v>218346</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>246247</v>
+        <v>245872</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6982110195930289</v>
+        <v>0.698211019593029</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6503424865034914</v>
+        <v>0.6535655703576198</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7370783342431163</v>
+        <v>0.7359551130014117</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>43531</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34249</v>
+        <v>35640</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53350</v>
+        <v>53372</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2030018189569737</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1597177427125452</v>
+        <v>0.1662021647901284</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2487928177934775</v>
+        <v>0.248892676409017</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>188</v>
@@ -5391,19 +5391,19 @@
         <v>111571</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>98310</v>
+        <v>100331</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124077</v>
+        <v>124909</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3808578625406667</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3355885648394923</v>
+        <v>0.3424879242106609</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4235491941977276</v>
+        <v>0.4263881836731248</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>257</v>
@@ -5412,19 +5412,19 @@
         <v>155102</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>139594</v>
+        <v>138294</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>172091</v>
+        <v>172014</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3056904081253494</v>
+        <v>0.3056904081253495</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2751260882753557</v>
+        <v>0.2725638458193475</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.339173804195733</v>
+        <v>0.3390222168903468</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>170905</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>161086</v>
+        <v>161064</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>180187</v>
+        <v>178796</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7969981810430263</v>
+        <v>0.7969981810430262</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7512071822065223</v>
+        <v>0.7511073235909829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8402822572874548</v>
+        <v>0.8337978352098713</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>332</v>
@@ -5462,19 +5462,19 @@
         <v>181376</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>168870</v>
+        <v>168038</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>194637</v>
+        <v>192616</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6191421374593333</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5764508058022723</v>
+        <v>0.5736118163268741</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6644114351605077</v>
+        <v>0.6575120757893388</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>589</v>
@@ -5483,19 +5483,19 @@
         <v>352281</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>335292</v>
+        <v>335369</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>367789</v>
+        <v>369089</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6943095918746504</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6608261958042672</v>
+        <v>0.6609777831096534</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7248739117246443</v>
+        <v>0.7274361541806531</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>151263</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132834</v>
+        <v>133598</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>168545</v>
+        <v>170348</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2117835912021879</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1859811937598049</v>
+        <v>0.1870514085849808</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2359811115907599</v>
+        <v>0.238504725572117</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>623</v>
@@ -5608,19 +5608,19 @@
         <v>335134</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>315524</v>
+        <v>315017</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>355828</v>
+        <v>357636</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.373560170511435</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3517014944868007</v>
+        <v>0.3511365589122895</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.396627477945499</v>
+        <v>0.3986425699350165</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>855</v>
@@ -5629,19 +5629,19 @@
         <v>486397</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>457466</v>
+        <v>459995</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>515734</v>
+        <v>517394</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3018533270918139</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2838993671348108</v>
+        <v>0.285468907587871</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3200594309148788</v>
+        <v>0.3210898643464045</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>562969</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>545687</v>
+        <v>543884</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>581398</v>
+        <v>580634</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.788216408797812</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7640188884092403</v>
+        <v>0.7614952744278833</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8140188062401952</v>
+        <v>0.8129485914150197</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1073</v>
@@ -5679,19 +5679,19 @@
         <v>562001</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>541307</v>
+        <v>539499</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>581611</v>
+        <v>582118</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.626439829488565</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6033725220545011</v>
+        <v>0.6013574300649834</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6482985055131995</v>
+        <v>0.6488634410877104</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1865</v>
@@ -5700,19 +5700,19 @@
         <v>1124971</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1095634</v>
+        <v>1093974</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1153902</v>
+        <v>1151373</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.698146672908186</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6799405690851211</v>
+        <v>0.6789101356535956</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7161006328651891</v>
+        <v>0.7145310924121285</v>
       </c>
     </row>
     <row r="18">
